--- a/biology/Zoologie/Ictonyx/Ictonyx.xlsx
+++ b/biology/Zoologie/Ictonyx/Ictonyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zorilles
 Ictonyx est un genre de carnivores de la famille des Mustélidés qui comprend deux espèces appelées des zorilles comme quelques autres espèces de mustélidés.
@@ -513,12 +525,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (31 mai 2013)[2] et NCBI  (31 mai 2013)[3]  :
-Ictonyx libyca (Hemprich &amp; Ehrenberg, 1833) — zorille du désert[4], zorille de Libye[4] ou zorille du Sahara
-Ictonyx striatus (Perry, 1810) — zorille commune[4], zorille[4],[5],[6] ou zorilla[6]
-Selon ITIS      (31 mai 2013)[1] et Catalogue of Life                                   (31 mai 2013)[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (31 mai 2013) et NCBI  (31 mai 2013)  :
+Ictonyx libyca (Hemprich &amp; Ehrenberg, 1833) — zorille du désert, zorille de Libye ou zorille du Sahara
+Ictonyx striatus (Perry, 1810) — zorille commune, zorille ou zorilla
+Selon ITIS      (31 mai 2013) et Catalogue of Life                                   (31 mai 2013) :
 Ictonyx libycus (Hemprich &amp; Ehrenberg, 1833)
 Ictonyx striatus (Perry, 1810)</t>
         </is>
